--- a/Sequence Models for Time Series and Natural Language Processing/RNN Flowmap.xlsx
+++ b/Sequence Models for Time Series and Natural Language Processing/RNN Flowmap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine Learning Engineer\Sequence Models for Time Series and Natural Language Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GCP\Machine_Learning_Engineer\Sequence Models for Time Series and Natural Language Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65907DB9-79D5-4C5D-9189-2D08D666DB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2EA36A-1190-48FD-AB8C-8366BBB73ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4988691F-0A63-4850-9A50-FE26828233E2}"/>
   </bookViews>
@@ -165,25 +165,26 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -192,7 +193,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,15 +529,15 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -554,9 +554,9 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -564,9 +564,9 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="1">
         <v>1</v>
       </c>
@@ -574,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -584,25 +584,25 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -612,110 +612,110 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="11">
-        <v>10</v>
+      <c r="J6" s="2">
+        <v>8</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1">
         <v>1</v>
       </c>
@@ -725,11 +725,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:C9"/>
@@ -741,11 +741,11 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
